--- a/model/model.xlsx
+++ b/model/model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Projects\Jupyter\Payment System\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Projects\Jupyter\Payments\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="C799" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WHPASPa7NSruLtU1UUg/JE34P/WKo0Wp566SP9qBpa7drlnW7mnb0l3E/yuB8t5lTfKvkXsEWvGMTnmOKHtPrg==" workbookSaltValue="07R+yNh26AbnVpiNEXwU+A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>SISTEMA DE LA RADIO CUBANA</t>
   </si>
@@ -213,34 +213,7 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>Progreso</t>
-  </si>
-  <si>
     <t>CMBF</t>
-  </si>
-  <si>
-    <t>Rebelde</t>
-  </si>
-  <si>
-    <t>Taíno</t>
-  </si>
-  <si>
-    <t>Cubana</t>
-  </si>
-  <si>
-    <t>Reloj</t>
-  </si>
-  <si>
-    <t>Arte</t>
-  </si>
-  <si>
-    <t>Enciclopedia</t>
-  </si>
-  <si>
-    <t>Habana Cuba</t>
-  </si>
-  <si>
-    <t>Cadena Habana</t>
   </si>
   <si>
     <t>Nivel de Evaluación</t>
@@ -301,6 +274,42 @@
   </si>
   <si>
     <t>Importe por Remoto</t>
+  </si>
+  <si>
+    <t>Radio Progreso</t>
+  </si>
+  <si>
+    <t>Radio Rebelde</t>
+  </si>
+  <si>
+    <t>Radio Taíno</t>
+  </si>
+  <si>
+    <t>Radio Cubana</t>
+  </si>
+  <si>
+    <t>Rradio Reloj</t>
+  </si>
+  <si>
+    <t>Radio Arte</t>
+  </si>
+  <si>
+    <t>Radio Enciclopedia</t>
+  </si>
+  <si>
+    <t>Radio Habana Cuba</t>
+  </si>
+  <si>
+    <t>Radio Cadena Habana</t>
+  </si>
+  <si>
+    <t>Radio Metropolitano</t>
+  </si>
+  <si>
+    <t>Radio Coco</t>
+  </si>
+  <si>
+    <t>Radio Ciudad Habana</t>
   </si>
 </sst>
 </file>
@@ -1570,6 +1579,114 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="53" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1589,114 +1706,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="53" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2136,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2153,61 +2162,64 @@
     <col min="40" max="43" width="6.42578125" style="5" customWidth="1"/>
     <col min="44" max="44" width="10.7109375" style="4" customWidth="1"/>
     <col min="45" max="45" width="10.140625" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="11.28515625" style="1"/>
+    <col min="46" max="46" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:53" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
       <c r="AM2" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="98"/>
+        <v>42</v>
+      </c>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="72"/>
       <c r="AS2" s="66"/>
       <c r="AT2" s="64" t="s">
         <v>23</v>
@@ -2225,52 +2237,52 @@
       <c r="BA2" s="66"/>
     </row>
     <row r="3" spans="1:53" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
-      <c r="AL3" s="104"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
       <c r="AM3" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="99"/>
+        <v>41</v>
+      </c>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
       <c r="AS3" s="66"/>
       <c r="AT3" s="64" t="s">
         <v>24</v>
@@ -2279,7 +2291,7 @@
         <v>2022</v>
       </c>
       <c r="AV3" s="64" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AW3" s="66"/>
       <c r="AX3" s="66"/>
@@ -2288,58 +2300,58 @@
       <c r="BA3" s="66"/>
     </row>
     <row r="4" spans="1:53" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
+      <c r="A4" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="87"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
+      <c r="AC4" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
       <c r="AN4" s="56"/>
       <c r="AO4" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="101"/>
+        <v>43</v>
+      </c>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="75"/>
       <c r="AS4" s="66"/>
       <c r="AT4" s="64" t="s">
         <v>25</v>
@@ -2348,7 +2360,7 @@
         <v>2023</v>
       </c>
       <c r="AV4" s="64" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AW4" s="66"/>
       <c r="AX4" s="66"/>
@@ -2358,51 +2370,51 @@
     </row>
     <row r="5" spans="1:53" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
+        <v>39</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
+      <c r="W5" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="11"/>
-      <c r="AK5" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="102"/>
+      <c r="AK5" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL5" s="92"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="76"/>
       <c r="AO5" s="56"/>
       <c r="AP5" s="56"/>
       <c r="AQ5" s="56"/>
@@ -2415,7 +2427,7 @@
         <v>2024</v>
       </c>
       <c r="AV5" s="64" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AW5" s="66"/>
       <c r="AX5" s="66"/>
@@ -2428,46 +2440,46 @@
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="86"/>
-      <c r="AO6" s="86"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="86"/>
-      <c r="AR6" s="86"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
       <c r="AS6" s="66"/>
       <c r="AT6" s="64" t="s">
         <v>27</v>
@@ -2476,7 +2488,7 @@
         <v>2025</v>
       </c>
       <c r="AV6" s="64" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AW6" s="66"/>
       <c r="AX6" s="66"/>
@@ -2485,76 +2497,76 @@
       <c r="BA6" s="66"/>
     </row>
     <row r="7" spans="1:53" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="80" t="s">
+      <c r="C7" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="91" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AK7" s="84" t="s">
+      <c r="AK7" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AL7" s="87" t="s">
+      <c r="AL7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AM7" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN7" s="82" t="s">
+      <c r="AM7" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AO7" s="88" t="s">
+      <c r="AO7" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="AP7" s="82" t="s">
+      <c r="AP7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AQ7" s="81" t="s">
+      <c r="AQ7" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AR7" s="89" t="s">
+      <c r="AR7" s="96" t="s">
         <v>12</v>
       </c>
       <c r="AS7" s="66"/>
@@ -2565,7 +2577,7 @@
         <v>2026</v>
       </c>
       <c r="AV7" s="64" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AW7" s="66"/>
       <c r="AX7" s="66"/>
@@ -2574,54 +2586,54 @@
       <c r="BA7" s="66"/>
     </row>
     <row r="8" spans="1:53" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="83" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="82"/>
-      <c r="AO8" s="88" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="96"/>
       <c r="AS8" s="66"/>
       <c r="AT8" s="64" t="s">
         <v>29</v>
@@ -2630,7 +2642,7 @@
         <v>2027</v>
       </c>
       <c r="AV8" s="64" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AW8" s="66"/>
       <c r="AX8" s="66"/>
@@ -2639,10 +2651,10 @@
       <c r="BA8" s="66"/>
     </row>
     <row r="9" spans="1:53" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
@@ -2736,17 +2748,17 @@
       <c r="AI9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="88" t="s">
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="96"/>
       <c r="AS9" s="66"/>
       <c r="AT9" s="64" t="s">
         <v>30</v>
@@ -2755,7 +2767,7 @@
         <v>2028</v>
       </c>
       <c r="AV9" s="64" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AW9" s="66"/>
       <c r="AX9" s="66"/>
@@ -2764,10 +2776,10 @@
       <c r="BA9" s="66"/>
     </row>
     <row r="10" spans="1:53" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="15">
         <v>1</v>
       </c>
@@ -2861,17 +2873,17 @@
       <c r="AI10" s="17">
         <v>31</v>
       </c>
-      <c r="AJ10" s="91"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="88" t="s">
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="89"/>
+      <c r="AO10" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="89"/>
+      <c r="AP10" s="89"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="96"/>
       <c r="AS10" s="66"/>
       <c r="AT10" s="64" t="s">
         <v>31</v>
@@ -2880,7 +2892,7 @@
         <v>2029</v>
       </c>
       <c r="AV10" s="64" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AW10" s="66"/>
       <c r="AX10" s="66"/>
@@ -2950,7 +2962,7 @@
         <v>2030</v>
       </c>
       <c r="AV11" s="65" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AW11" s="67"/>
       <c r="AX11" s="67"/>
@@ -3016,8 +3028,10 @@
       <c r="AT12" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="AW12" s="67"/>
       <c r="AX12" s="67"/>
       <c r="AY12" s="67"/>
@@ -3082,8 +3096,10 @@
       <c r="AT13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65" t="s">
+        <v>58</v>
+      </c>
       <c r="AW13" s="67"/>
       <c r="AX13" s="67"/>
       <c r="AY13" s="67"/>
@@ -3145,9 +3161,11 @@
         <v>0</v>
       </c>
       <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="65" t="s">
+        <v>59</v>
+      </c>
       <c r="AW14" s="67"/>
       <c r="AX14" s="67"/>
       <c r="AY14" s="67"/>
@@ -3273,6 +3291,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="67"/>
+      <c r="AT16" s="67"/>
       <c r="AU16" s="67"/>
       <c r="AV16" s="67"/>
       <c r="AW16" s="67"/>
@@ -3336,6 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="67"/>
+      <c r="AT17" s="67"/>
       <c r="AU17" s="67"/>
       <c r="AV17" s="67"/>
       <c r="AW17" s="67"/>
@@ -3399,6 +3419,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="67"/>
+      <c r="AT18" s="67"/>
       <c r="AU18" s="67"/>
       <c r="AV18" s="67"/>
       <c r="AW18" s="67"/>
@@ -3462,6 +3483,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="67"/>
+      <c r="AT19" s="67"/>
       <c r="AU19" s="67"/>
       <c r="AV19" s="67"/>
       <c r="AW19" s="67"/>
@@ -3525,6 +3547,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="67"/>
+      <c r="AT20" s="67"/>
       <c r="AU20" s="67"/>
       <c r="AV20" s="67"/>
       <c r="AW20" s="67"/>
@@ -3534,56 +3557,57 @@
       <c r="BA20" s="67"/>
     </row>
     <row r="21" spans="1:53" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
       <c r="S21" s="50"/>
       <c r="T21" s="50"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="71"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="103"/>
       <c r="AG21" s="51"/>
-      <c r="AH21" s="72" t="s">
+      <c r="AH21" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="72"/>
-      <c r="AL21" s="73">
+      <c r="AI21" s="104"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="104"/>
+      <c r="AL21" s="105">
         <f>AR11+AR12+AR13+AR14+AR15+AR16+AR17+AR18+AR19+AR20</f>
         <v>0</v>
       </c>
-      <c r="AM21" s="73"/>
-      <c r="AN21" s="73"/>
-      <c r="AO21" s="73"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="73"/>
-      <c r="AR21" s="73"/>
+      <c r="AM21" s="105"/>
+      <c r="AN21" s="105"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="105"/>
+      <c r="AQ21" s="105"/>
+      <c r="AR21" s="105"/>
       <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
       <c r="AU21" s="66"/>
       <c r="AV21" s="66"/>
       <c r="AW21" s="66"/>
@@ -3593,55 +3617,56 @@
       <c r="BA21" s="66"/>
     </row>
     <row r="22" spans="1:53" s="53" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
       <c r="R22" s="52"/>
       <c r="S22" s="52"/>
       <c r="T22" s="52"/>
-      <c r="U22" s="75" t="s">
+      <c r="U22" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="75"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="107"/>
+      <c r="AF22" s="107"/>
       <c r="AG22" s="52"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="73"/>
-      <c r="AO22" s="73"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="73"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="104"/>
+      <c r="AJ22" s="104"/>
+      <c r="AK22" s="104"/>
+      <c r="AL22" s="105"/>
+      <c r="AM22" s="105"/>
+      <c r="AN22" s="105"/>
+      <c r="AO22" s="105"/>
+      <c r="AP22" s="105"/>
+      <c r="AQ22" s="105"/>
+      <c r="AR22" s="105"/>
       <c r="AS22" s="68"/>
+      <c r="AT22" s="68"/>
       <c r="AU22" s="68"/>
       <c r="AV22" s="68"/>
       <c r="AW22" s="68"/>
@@ -4268,12 +4293,39 @@
       <c r="AZ84" s="66"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G+4OniN9CerrHDJzsWrkuaX2uwEc/0QegEKZ7GFWhqBnBjfpVxD0X9txb5AQ6hJpqKNa9VTgEqRCtjSnOgHd1g==" saltValue="TVXGiJ6pXAzEFsw4xyGXaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MqpVgtZm428smTcRcB3xuvSTII7YewJyybHigqRTAyTHKGeBZHeg+P5WusmDPfvMTPvYiMLXj5N27erOn0gC3Q==" saltValue="mxwpGkpOf/o+9mpTe46nZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <protectedRanges>
     <protectedRange password="C799" sqref="A11:AI20 AK11:AK20 AM11:AQ20 AM5 AE4 AC5 P4 B5 C4 U21 A21 AP4 AN2:AN3" name="allowedR1"/>
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="38">
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="U21:AF21"/>
+    <mergeCell ref="AH21:AK22"/>
+    <mergeCell ref="AL21:AR22"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="U22:AF22"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:AI7"/>
+    <mergeCell ref="AQ7:AQ10"/>
+    <mergeCell ref="E8:AI8"/>
+    <mergeCell ref="AK7:AK10"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="E6:AR6"/>
+    <mergeCell ref="AL7:AL10"/>
+    <mergeCell ref="AM7:AM10"/>
+    <mergeCell ref="AN7:AN10"/>
+    <mergeCell ref="AO7:AO10"/>
+    <mergeCell ref="AP7:AP10"/>
+    <mergeCell ref="AR7:AR10"/>
+    <mergeCell ref="AJ7:AJ10"/>
+    <mergeCell ref="B5:U5"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="AN2:AR2"/>
     <mergeCell ref="AN3:AR3"/>
     <mergeCell ref="AP4:AR4"/>
@@ -4285,43 +4337,16 @@
     <mergeCell ref="AE4:AM4"/>
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="P4:X4"/>
-    <mergeCell ref="AJ7:AJ10"/>
-    <mergeCell ref="B5:U5"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="AQ7:AQ10"/>
-    <mergeCell ref="E8:AI8"/>
-    <mergeCell ref="AK7:AK10"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="E6:AR6"/>
-    <mergeCell ref="AL7:AL10"/>
-    <mergeCell ref="AM7:AM10"/>
-    <mergeCell ref="AN7:AN10"/>
-    <mergeCell ref="AO7:AO10"/>
-    <mergeCell ref="AP7:AP10"/>
-    <mergeCell ref="AR7:AR10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:AI7"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="U21:AF21"/>
-    <mergeCell ref="AH21:AK22"/>
-    <mergeCell ref="AL21:AR22"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="U22:AF22"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AR2">
       <formula1>$AT$2:$AT$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4:AR4">
-      <formula1>$AV$2:$AV$11</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AR3">
       <formula1>$AU$2:$AU$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4:AR4">
+      <formula1>$AV$2:$AV$14</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.33888888888888891" right="0.2048611111111111" top="0.57152777777777775" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
